--- a/public/ELO Analysis.xlsx
+++ b/public/ELO Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD/+Node/orobasUI/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00D3685-E5BE-9441-90A3-0C89EF9AE51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAE764-E93B-C94C-8012-618A420C1E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{926F71CF-ED74-EB49-BF4D-0E84ABDC1A78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>LMR</t>
   </si>
@@ -174,13 +174,19 @@
   </si>
   <si>
     <t>Null Window Factor</t>
+  </si>
+  <si>
+    <t>Moves Count Pruning</t>
+  </si>
+  <si>
+    <t>Not fully tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,13 +194,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,8 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,38 +546,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A865B7B-CB03-CD4F-8C3F-2271F1AAE130}">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -564,11 +589,11 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <f>C2-$G$1</f>
+        <f>C2-$H$1</f>
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -576,11 +601,11 @@
         <v>341</v>
       </c>
       <c r="D3">
-        <f>C3-$G$1</f>
+        <f>C3-$H$1</f>
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -588,11 +613,11 @@
         <v>251</v>
       </c>
       <c r="D4">
-        <f>C4-$G$1</f>
+        <f>C4-$H$1</f>
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -600,11 +625,11 @@
         <v>140</v>
       </c>
       <c r="D5">
-        <f>C5-$G$1</f>
+        <f>C5-$H$1</f>
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -612,11 +637,11 @@
         <v>118</v>
       </c>
       <c r="D6">
-        <f>C6-$G$1</f>
+        <f>C6-$H$1</f>
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -624,11 +649,11 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <f>C7-$G$1</f>
+        <f>C7-$H$1</f>
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -636,11 +661,11 @@
         <v>117</v>
       </c>
       <c r="D8">
-        <f>C8-$G$1</f>
+        <f>C8-$H$1</f>
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -648,433 +673,448 @@
         <v>116</v>
       </c>
       <c r="D9">
-        <f>C9-$G$1</f>
+        <f>C9-$H$1</f>
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10-$H$1</f>
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>84</v>
       </c>
-      <c r="D10">
-        <f>C10-$G$1</f>
+      <c r="D11">
+        <f>C11-$H$1</f>
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>81</v>
       </c>
-      <c r="D11">
-        <f>C11-$G$1</f>
+      <c r="D12">
+        <f>C12-$H$1</f>
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>71</v>
       </c>
-      <c r="D12">
-        <f>C12-$G$1</f>
+      <c r="D13">
+        <f>C13-$H$1</f>
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>67</v>
       </c>
-      <c r="D13">
-        <f>C13-$G$1</f>
+      <c r="D14">
+        <f>C14-$H$1</f>
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>55</v>
       </c>
-      <c r="D14">
-        <f>C14-$G$1</f>
+      <c r="D15">
+        <f>C15-$H$1</f>
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>46</v>
       </c>
-      <c r="D15">
-        <f>C15-$G$1</f>
+      <c r="D16">
+        <f>C16-$H$1</f>
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <f>C16-$G$1</f>
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <f>C17-$G$1</f>
-        <v>32</v>
+        <f>C17-$H$1</f>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <f>C18-$G$1</f>
-        <v>28</v>
+        <f>C18-$H$1</f>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <f>C19-$H$1</f>
         <v>28</v>
-      </c>
-      <c r="C19">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <f>C19-$G$1</f>
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>37</v>
       </c>
       <c r="D20">
-        <f>C20-$G$1</f>
+        <f>C20-$H$1</f>
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <f>C21-$G$1</f>
-        <v>22</v>
+        <f>C21-$H$1</f>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <f>C22-$G$1</f>
-        <v>15</v>
+        <f>C22-$H$1</f>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <f>C23-$G$1</f>
-        <v>13</v>
+        <f>C23-$H$1</f>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <f>C24-$G$1</f>
-        <v>9</v>
+        <f>C24-$H$1</f>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <f>C25-$G$1</f>
-        <v>8</v>
+        <f>C25-$H$1</f>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <f>C26-$G$1</f>
-        <v>5</v>
+        <f>C26-$H$1</f>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <f>C27-$G$1</f>
-        <v>3</v>
+        <f>C27-$H$1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <f>C28-$G$1</f>
-        <v>2</v>
+        <f>C28-$H$1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <f>C29-$G$1</f>
-        <v>-3</v>
+        <f>C29-$H$1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <f>C30-$G$1</f>
-        <v>-11</v>
+        <f>C30-$H$1</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <f>C31-$G$1</f>
+        <f>C31-$H$1</f>
         <v>-11</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <f>C32-$G$1</f>
+        <f>C32-$H$1</f>
         <v>-11</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <f>C33-$G$1</f>
+        <f>C33-$H$1</f>
         <v>-11</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <f>C34-$G$1</f>
+        <f>C34-$H$1</f>
         <v>-11</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <f>C35-$G$1</f>
+        <f>C35-$H$1</f>
         <v>-11</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <f>C36-$G$1</f>
-        <v>-18</v>
+        <f>C36-$H$1</f>
+        <v>-11</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D37">
-        <f>C37-$G$1</f>
-        <v>-21</v>
+        <f>C37-$H$1</f>
+        <v>-18</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>-10</v>
       </c>
       <c r="D38">
-        <f>C38-$G$1</f>
+        <f>C38-$H$1</f>
         <v>-21</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>-27</v>
+        <v>-10</v>
       </c>
       <c r="D39">
-        <f>C39-$G$1</f>
-        <v>-38</v>
+        <f>C39-$H$1</f>
+        <v>-21</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>-45</v>
+        <v>-27</v>
       </c>
       <c r="D40">
-        <f>C40-$G$1</f>
-        <v>-56</v>
+        <f>C40-$H$1</f>
+        <v>-38</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>-47</v>
+        <v>-45</v>
       </c>
       <c r="D41">
-        <f>C41-$G$1</f>
-        <v>-58</v>
+        <f>C41-$H$1</f>
+        <v>-56</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>-49</v>
+        <v>-47</v>
       </c>
       <c r="D42">
-        <f>C42-$G$1</f>
-        <v>-60</v>
+        <f>C42-$H$1</f>
+        <v>-58</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="D43">
-        <f>C43-$G$1</f>
-        <v>-61</v>
+        <f>C43-$H$1</f>
+        <v>-60</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>-50</v>
+      </c>
+      <c r="D44">
+        <f>C44-$H$1</f>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>-58</v>
       </c>
-      <c r="D44">
-        <f>C44-$G$1</f>
+      <c r="D45">
+        <f>C45-$H$1</f>
         <v>-69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
-    <sortCondition descending="1" ref="C38:C44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:H45">
+    <sortCondition descending="1" ref="C33:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/ELO Analysis.xlsx
+++ b/public/ELO Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD/+Node/orobasUI/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAE764-E93B-C94C-8012-618A420C1E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754E77E-F234-B143-9A28-BA300E1B38A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" xr2:uid="{926F71CF-ED74-EB49-BF4D-0E84ABDC1A78}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{926F71CF-ED74-EB49-BF4D-0E84ABDC1A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,10 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +257,1060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$25:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$25:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C635-154F-9A94-98F27FCF6149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="699304767"/>
+        <c:axId val="734264031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="699304767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734264031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="734264031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699304767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14041FAA-71CF-121A-8911-0F129D24E31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A865B7B-CB03-CD4F-8C3F-2271F1AAE130}">
-  <dimension ref="B1:H45"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,13 +1629,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
@@ -582,110 +1646,110 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>400</v>
       </c>
       <c r="D2">
-        <f>C2-$H$1</f>
+        <f t="shared" ref="D2:D45" si="0">C2-$H$1</f>
         <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>341</v>
       </c>
       <c r="D3">
-        <f>C3-$H$1</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>251</v>
       </c>
       <c r="D4">
-        <f>C4-$H$1</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>140</v>
       </c>
       <c r="D5">
-        <f>C5-$H$1</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>118</v>
       </c>
       <c r="D6">
-        <f>C6-$H$1</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>118</v>
       </c>
       <c r="D7">
-        <f>C7-$H$1</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>117</v>
       </c>
       <c r="D8">
-        <f>C8-$H$1</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>116</v>
       </c>
       <c r="D9">
-        <f>C9-$H$1</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>97</v>
       </c>
-      <c r="D10" s="1">
-        <f>C10-$H$1</f>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E10" t="s">
@@ -693,26 +1757,26 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>84</v>
       </c>
       <c r="D11">
-        <f>C11-$H$1</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>81</v>
       </c>
       <c r="D12">
-        <f>C12-$H$1</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -720,11 +1784,11 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>71</v>
       </c>
       <c r="D13">
-        <f>C13-$H$1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -732,384 +1796,509 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>67</v>
       </c>
       <c r="D14">
-        <f>C14-$H$1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>55</v>
       </c>
       <c r="D15">
-        <f>C15-$H$1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>46</v>
       </c>
       <c r="D16">
-        <f>C16-$H$1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>45</v>
       </c>
       <c r="D17">
-        <f>C17-$H$1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>43</v>
       </c>
       <c r="D18">
-        <f>C18-$H$1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>39</v>
       </c>
       <c r="D19">
-        <f>C19-$H$1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>37</v>
       </c>
       <c r="D20">
-        <f>C20-$H$1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>37</v>
       </c>
       <c r="D21">
-        <f>C21-$H$1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>33</v>
       </c>
       <c r="D22">
-        <f>C22-$H$1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>26</v>
       </c>
       <c r="D23">
-        <f>C23-$H$1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>24</v>
       </c>
       <c r="D24">
-        <f>C24-$H$1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>20</v>
       </c>
       <c r="D25">
-        <f>C25-$H$1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>19</v>
       </c>
       <c r="D26">
-        <f>C26-$H$1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>16</v>
       </c>
       <c r="D27">
-        <f>C27-$H$1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>14</v>
       </c>
       <c r="D28">
-        <f>C28-$H$1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>13</v>
       </c>
       <c r="D29">
-        <f>C29-$H$1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>8</v>
       </c>
       <c r="D30">
-        <f>C30-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31">
-        <f>C31-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32">
-        <f>C32-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
       <c r="D33">
-        <f>C33-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>0</v>
       </c>
       <c r="D34">
-        <f>C34-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>0</v>
       </c>
       <c r="D35">
-        <f>C35-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>0</v>
       </c>
       <c r="D36">
-        <f>C36-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>-7</v>
       </c>
       <c r="D37">
-        <f>C37-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>-10</v>
       </c>
       <c r="D38">
-        <f>C38-$H$1</f>
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>-10</v>
       </c>
       <c r="D39">
-        <f>C39-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-21</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>-27</v>
       </c>
       <c r="D40">
-        <f>C40-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-38</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>-45</v>
       </c>
       <c r="D41">
-        <f>C41-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-56</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>-47</v>
       </c>
       <c r="D42">
-        <f>C42-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-58</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>-49</v>
       </c>
       <c r="D43">
-        <f>C43-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-60</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>-50</v>
       </c>
       <c r="D44">
-        <f>C44-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-61</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>-58</v>
       </c>
       <c r="D45">
-        <f>C45-$H$1</f>
+        <f t="shared" si="0"/>
         <v>-69</v>
+      </c>
+      <c r="I45">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>18.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1117,5 +2306,6 @@
     <sortCondition descending="1" ref="C33:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>